--- a/InputData/add-outputs/CPPCS/Clean Power Plan Compliance Schedule.xlsx
+++ b/InputData/add-outputs/CPPCS/Clean Power Plan Compliance Schedule.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Calcs" sheetId="4" r:id="rId4"/>
     <sheet name="CPPCS" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -506,7 +506,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -552,6 +552,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,23 +599,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -873,7 +874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -885,103 +886,103 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="41"/>
-    <col min="2" max="2" width="80" style="41" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="41"/>
+    <col min="1" max="1" width="9.125" style="31"/>
+    <col min="2" max="2" width="80" style="31" customWidth="1"/>
+    <col min="3" max="16384" width="9.125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="32" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="43">
+      <c r="B5" s="33">
         <v>2015</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="30" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="43">
+      <c r="B12" s="33">
         <v>2015</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="31" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="31" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="31" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="31" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1005,31 +1006,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="K1" s="25" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="K1" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="27"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -2988,35 +2989,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="30"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
@@ -3029,20 +3030,20 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="31" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="33"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -6226,22 +6227,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -6348,7 +6349,7 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6360,7 +6361,7 @@
     <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2013</v>
       </c>
@@ -6388,36 +6389,96 @@
       <c r="J1">
         <v>2021</v>
       </c>
-      <c r="K1" s="37">
+      <c r="K1" s="27">
         <v>2022</v>
       </c>
-      <c r="L1" s="37">
+      <c r="L1" s="27">
         <v>2023</v>
       </c>
-      <c r="M1" s="37">
+      <c r="M1" s="27">
         <v>2024</v>
       </c>
-      <c r="N1" s="36">
+      <c r="N1" s="26">
         <v>2025</v>
       </c>
-      <c r="O1" s="36">
+      <c r="O1" s="26">
         <v>2026</v>
       </c>
-      <c r="P1" s="36">
+      <c r="P1" s="26">
         <v>2027</v>
       </c>
-      <c r="Q1" s="39">
+      <c r="Q1" s="29">
         <v>2028</v>
       </c>
-      <c r="R1" s="39">
+      <c r="R1" s="29">
         <v>2029</v>
       </c>
-      <c r="S1" s="38">
+      <c r="S1" s="28">
         <v>2030</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="T1" s="46">
+        <v>2031</v>
+      </c>
+      <c r="U1" s="46">
+        <v>2032</v>
+      </c>
+      <c r="V1" s="46">
+        <v>2033</v>
+      </c>
+      <c r="W1" s="46">
+        <v>2034</v>
+      </c>
+      <c r="X1" s="46">
+        <v>2035</v>
+      </c>
+      <c r="Y1" s="46">
+        <v>2036</v>
+      </c>
+      <c r="Z1" s="46">
+        <v>2037</v>
+      </c>
+      <c r="AA1" s="46">
+        <v>2038</v>
+      </c>
+      <c r="AB1" s="46">
+        <v>2039</v>
+      </c>
+      <c r="AC1" s="46">
+        <v>2040</v>
+      </c>
+      <c r="AD1" s="46">
+        <v>2041</v>
+      </c>
+      <c r="AE1" s="46">
+        <v>2042</v>
+      </c>
+      <c r="AF1" s="46">
+        <v>2043</v>
+      </c>
+      <c r="AG1" s="46">
+        <v>2044</v>
+      </c>
+      <c r="AH1" s="46">
+        <v>2045</v>
+      </c>
+      <c r="AI1" s="46">
+        <v>2046</v>
+      </c>
+      <c r="AJ1" s="46">
+        <v>2047</v>
+      </c>
+      <c r="AK1" s="46">
+        <v>2048</v>
+      </c>
+      <c r="AL1" s="46">
+        <v>2049</v>
+      </c>
+      <c r="AM1" s="46">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>74</v>
       </c>
       <c r="B2">
@@ -6477,6 +6538,66 @@
       <c r="S2">
         <f>Calcs!F5</f>
         <v>1550643469796647.2</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
